--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2054031.200717799</v>
+        <v>-2056858.182359589</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9337329.87962825</v>
+        <v>9337329.879628252</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>225.2409454471789</v>
       </c>
       <c r="C2" t="n">
-        <v>62.25143040713812</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>153.1289438389317</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.40773217849674</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>276.1565137023554</v>
@@ -753,7 +753,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -789,19 +789,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>124.4041478535643</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.5666619001514</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>401.9852315905054</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>14.72650339009235</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>157.0090051485259</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>124.815098744141</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2995541778331</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0352047254578</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>78.78148970948746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>81.01541806128944</v>
+        <v>81.01541806128932</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>198.9220132110724</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9210983679648</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>216.6368113164235</v>
+        <v>155.9277169747643</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.5179692224342</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.060765387556007</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>172.1009049156071</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>161.9719026370929</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>26.67548963379889</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>40.34437900655318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.00429467105819</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>323.5874396605871</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>236.2648339756466</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>187.4330611973853</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>206.6123383833402</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,10 +1622,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605477</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>91.9303487751656</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116142</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188908</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>91.45440319670814</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>141.7347076965136</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>183.8488525946972</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.0974723923559</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>231.0356065364121</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H19" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>154.6524183603616</v>
       </c>
       <c r="U19" t="n">
         <v>286.1933087134791</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>96.316615810071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.1644063769637</v>
+        <v>410.1644063769631</v>
       </c>
       <c r="H20" t="n">
         <v>286.8518683469699</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H22" t="n">
-        <v>76.59151878149667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>73.65767465442971</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>132.8266452846652</v>
       </c>
       <c r="U22" t="n">
         <v>286.1933087134791</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>38.34096247940057</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H25" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T25" t="n">
-        <v>218.097472392356</v>
+        <v>132.8266452846652</v>
       </c>
       <c r="U25" t="n">
         <v>286.1933087134791</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.54910777570093</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.6861009032421</v>
@@ -2731,7 +2731,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>73.65767465442971</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>259.5742784991216</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H31" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>183.8488525946973</v>
       </c>
       <c r="T31" t="n">
-        <v>218.097472392356</v>
+        <v>132.8266452846652</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>139.4763812753804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200485</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577.9835432869469</v>
+        <v>455.7141953803169</v>
       </c>
       <c r="C2" t="n">
-        <v>515.1033105524639</v>
+        <v>455.7141953803169</v>
       </c>
       <c r="D2" t="n">
-        <v>515.1033105524639</v>
+        <v>455.7141953803169</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1573371157412</v>
+        <v>455.7141953803169</v>
       </c>
       <c r="F2" t="n">
-        <v>229.2118363665377</v>
+        <v>176.7682219435942</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="W2" t="n">
-        <v>896.7353068029593</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="X2" t="n">
-        <v>856.9295167236696</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.9835432869469</v>
+        <v>683.2303018926189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="C3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="D3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
         <v>109.772397078701</v>
@@ -4407,25 +4407,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>35.88252027119665</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>282.0379868638976</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M3" t="n">
-        <v>555.4329354292295</v>
+        <v>439.1939517187798</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945614</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4437,22 +4437,22 @@
         <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>710.5159897838893</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="U3" t="n">
-        <v>710.5159897838893</v>
+        <v>406.078232853787</v>
       </c>
       <c r="V3" t="n">
-        <v>710.5159897838893</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="W3" t="n">
-        <v>456.2786330556876</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="X3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="Y3" t="n">
-        <v>248.4271328501548</v>
+        <v>361.0614026516138</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>980.637234587979</v>
+        <v>798.033526431027</v>
       </c>
       <c r="C5" t="n">
-        <v>611.6747176475674</v>
+        <v>798.033526431027</v>
       </c>
       <c r="D5" t="n">
-        <v>611.6747176475674</v>
+        <v>439.7678278242764</v>
       </c>
       <c r="E5" t="n">
-        <v>611.6747176475674</v>
+        <v>53.97957522603221</v>
       </c>
       <c r="F5" t="n">
-        <v>205.6290291723093</v>
+        <v>47.03407447682874</v>
       </c>
       <c r="G5" t="n">
-        <v>190.7537732227211</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="H5" t="n">
-        <v>190.7537732227211</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="I5" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="J5" t="n">
-        <v>68.74710162581363</v>
+        <v>68.74710162581391</v>
       </c>
       <c r="K5" t="n">
-        <v>244.3282577043026</v>
+        <v>244.3282577043033</v>
       </c>
       <c r="L5" t="n">
-        <v>514.4288353097605</v>
+        <v>514.4288353097619</v>
       </c>
       <c r="M5" t="n">
-        <v>831.57431617848</v>
+        <v>831.5743161784819</v>
       </c>
       <c r="N5" t="n">
-        <v>1139.219544947234</v>
+        <v>1139.219544947237</v>
       </c>
       <c r="O5" t="n">
-        <v>1384.532572851313</v>
+        <v>1384.532572851316</v>
       </c>
       <c r="P5" t="n">
-        <v>1556.227183742423</v>
+        <v>1556.227183742427</v>
       </c>
       <c r="Q5" t="n">
-        <v>1607.940926362022</v>
+        <v>1607.940926362026</v>
       </c>
       <c r="R5" t="n">
-        <v>1607.940926362022</v>
+        <v>1607.940926362026</v>
       </c>
       <c r="S5" t="n">
-        <v>1607.940926362022</v>
+        <v>1481.865069044712</v>
       </c>
       <c r="T5" t="n">
-        <v>1607.940926362022</v>
+        <v>1481.865069044712</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.102992849059</v>
+        <v>1481.865069044712</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.102992849059</v>
+        <v>1150.802181701141</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.102992849059</v>
+        <v>798.033526431027</v>
       </c>
       <c r="X5" t="n">
-        <v>980.637234587979</v>
+        <v>798.033526431027</v>
       </c>
       <c r="Y5" t="n">
-        <v>980.637234587979</v>
+        <v>798.033526431027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502.0808154427338</v>
+        <v>583.8459638592224</v>
       </c>
       <c r="C6" t="n">
-        <v>327.6277861616068</v>
+        <v>409.3929345780953</v>
       </c>
       <c r="D6" t="n">
-        <v>178.6933765003555</v>
+        <v>409.3929345780953</v>
       </c>
       <c r="E6" t="n">
-        <v>178.6933765003555</v>
+        <v>250.1554795726398</v>
       </c>
       <c r="F6" t="n">
-        <v>32.15881852724043</v>
+        <v>250.1554795726398</v>
       </c>
       <c r="G6" t="n">
-        <v>32.15881852724043</v>
+        <v>111.7360808600561</v>
       </c>
       <c r="H6" t="n">
-        <v>32.15881852724043</v>
+        <v>111.7360808600561</v>
       </c>
       <c r="I6" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="J6" t="n">
-        <v>60.25716960291508</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="K6" t="n">
-        <v>60.25716960291508</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="L6" t="n">
-        <v>356.4938595003995</v>
+        <v>249.9979593600113</v>
       </c>
       <c r="M6" t="n">
-        <v>754.1673256690902</v>
+        <v>647.6714255287025</v>
       </c>
       <c r="N6" t="n">
-        <v>937.2799921826297</v>
+        <v>1045.636804803304</v>
       </c>
       <c r="O6" t="n">
-        <v>1258.65522452391</v>
+        <v>1367.012037144584</v>
       </c>
       <c r="P6" t="n">
-        <v>1499.584113741351</v>
+        <v>1607.940926362026</v>
       </c>
       <c r="Q6" t="n">
-        <v>1607.940926362022</v>
+        <v>1607.940926362026</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.107170744558</v>
+        <v>1526.107170744562</v>
       </c>
       <c r="S6" t="n">
-        <v>1526.107170744558</v>
+        <v>1526.107170744562</v>
       </c>
       <c r="T6" t="n">
-        <v>1325.175844268727</v>
+        <v>1325.175844268731</v>
       </c>
       <c r="U6" t="n">
-        <v>1096.972714604116</v>
+        <v>1325.175844268731</v>
       </c>
       <c r="V6" t="n">
-        <v>1096.972714604116</v>
+        <v>1325.175844268731</v>
       </c>
       <c r="W6" t="n">
-        <v>878.1476526683346</v>
+        <v>1167.673099849777</v>
       </c>
       <c r="X6" t="n">
-        <v>670.2961524628017</v>
+        <v>959.8215996442443</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.2961524628017</v>
+        <v>752.0613008792905</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.15881852724043</v>
+        <v>182.2754579395763</v>
       </c>
       <c r="C7" t="n">
-        <v>32.15881852724043</v>
+        <v>182.2754579395763</v>
       </c>
       <c r="D7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="E7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="F7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="G7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="H7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="I7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="J7" t="n">
-        <v>32.15881852724043</v>
+        <v>32.15881852724051</v>
       </c>
       <c r="K7" t="n">
-        <v>39.84225215191536</v>
+        <v>39.84225215191562</v>
       </c>
       <c r="L7" t="n">
-        <v>105.2008364808503</v>
+        <v>105.2008364808508</v>
       </c>
       <c r="M7" t="n">
-        <v>184.5014228004928</v>
+        <v>184.5014228004935</v>
       </c>
       <c r="N7" t="n">
-        <v>267.3510348448327</v>
+        <v>267.3510348448337</v>
       </c>
       <c r="O7" t="n">
-        <v>327.8597656515774</v>
+        <v>327.8597656515786</v>
       </c>
       <c r="P7" t="n">
-        <v>356.1147558341275</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="Q7" t="n">
-        <v>290.9450899528808</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="R7" t="n">
-        <v>290.9450899528808</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="S7" t="n">
-        <v>290.9450899528808</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="T7" t="n">
-        <v>290.9450899528808</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="U7" t="n">
-        <v>286.8433067331273</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="V7" t="n">
-        <v>32.15881852724043</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="W7" t="n">
-        <v>32.15881852724043</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="X7" t="n">
-        <v>32.15881852724043</v>
+        <v>356.1147558341289</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.15881852724043</v>
+        <v>182.2754579395763</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1129.234822142136</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C8" t="n">
-        <v>760.2723052017246</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949741</v>
+        <v>763.7506936344325</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949741</v>
+        <v>377.9624410361883</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>371.0169402869848</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491377</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1889.300420467338</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1515.834662206258</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1515.834662206258</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.05843098304948</v>
+        <v>263.6310627346887</v>
       </c>
       <c r="C10" t="n">
-        <v>65.05843098304948</v>
+        <v>94.69487980678181</v>
       </c>
       <c r="D10" t="n">
-        <v>65.05843098304948</v>
+        <v>94.69487980678181</v>
       </c>
       <c r="E10" t="n">
-        <v>65.05843098304948</v>
+        <v>94.69487980678181</v>
       </c>
       <c r="F10" t="n">
-        <v>65.05843098304948</v>
+        <v>94.69487980678181</v>
       </c>
       <c r="G10" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y10" t="n">
-        <v>65.05843098304948</v>
+        <v>263.6310627346887</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2314.081404709477</v>
+        <v>2314.081404709476</v>
       </c>
       <c r="C11" t="n">
-        <v>1945.118887769066</v>
+        <v>1945.118887769065</v>
       </c>
       <c r="D11" t="n">
-        <v>1586.853189162315</v>
+        <v>1586.853189162314</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.064936564071</v>
+        <v>1259.997189505156</v>
       </c>
       <c r="F11" t="n">
-        <v>790.0790317744634</v>
+        <v>849.0112847155481</v>
       </c>
       <c r="G11" t="n">
-        <v>375.0065816194598</v>
+        <v>433.9388345605445</v>
       </c>
       <c r="H11" t="n">
-        <v>136.3552341693118</v>
+        <v>136.3552341693117</v>
       </c>
       <c r="I11" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J11" t="n">
-        <v>283.2374663678057</v>
+        <v>283.2374663678058</v>
       </c>
       <c r="K11" t="n">
-        <v>617.0568400576519</v>
+        <v>617.0568400576524</v>
       </c>
       <c r="L11" t="n">
-        <v>1481.575655711006</v>
+        <v>1481.575655711007</v>
       </c>
       <c r="M11" t="n">
-        <v>2015.10756038293</v>
+        <v>2460.125958540836</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.859832609577</v>
+        <v>3439.878230767482</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.258254679592</v>
+        <v>4015.838975769359</v>
       </c>
       <c r="P11" t="n">
-        <v>4410.613342126538</v>
+        <v>4410.613342126537</v>
       </c>
       <c r="Q11" t="n">
-        <v>4658.89970388222</v>
+        <v>4658.899703882219</v>
       </c>
       <c r="R11" t="n">
-        <v>4717.916770439022</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S11" t="n">
-        <v>4607.626101966117</v>
+        <v>4607.626101966116</v>
       </c>
       <c r="T11" t="n">
-        <v>4401.648354350339</v>
+        <v>4401.648354350338</v>
       </c>
       <c r="U11" t="n">
-        <v>4148.117877624176</v>
+        <v>4148.117877624175</v>
       </c>
       <c r="V11" t="n">
-        <v>3817.054990280605</v>
+        <v>3817.054990280604</v>
       </c>
       <c r="W11" t="n">
-        <v>3464.286335010491</v>
+        <v>3464.28633501049</v>
       </c>
       <c r="X11" t="n">
-        <v>3090.820576749411</v>
+        <v>3090.82057674941</v>
       </c>
       <c r="Y11" t="n">
-        <v>2700.681244773599</v>
+        <v>2700.681244773598</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3094.407082386789</v>
+        <v>969.3900734577051</v>
       </c>
       <c r="C12" t="n">
-        <v>2919.954053105662</v>
+        <v>794.9370441765781</v>
       </c>
       <c r="D12" t="n">
-        <v>2771.019643444411</v>
+        <v>646.0026345153269</v>
       </c>
       <c r="E12" t="n">
-        <v>2611.782188438955</v>
+        <v>486.7651795098714</v>
       </c>
       <c r="F12" t="n">
-        <v>2465.247630465839</v>
+        <v>340.2306215367564</v>
       </c>
       <c r="G12" t="n">
-        <v>2328.884530298459</v>
+        <v>203.8675213693749</v>
       </c>
       <c r="H12" t="n">
-        <v>2238.382635936327</v>
+        <v>113.3656270072424</v>
       </c>
       <c r="I12" t="n">
-        <v>2219.375344337865</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J12" t="n">
-        <v>2313.052613828482</v>
+        <v>188.0356048993977</v>
       </c>
       <c r="K12" t="n">
-        <v>2551.31681280883</v>
+        <v>426.2998038797449</v>
       </c>
       <c r="L12" t="n">
-        <v>2918.014973121495</v>
+        <v>792.9979641924101</v>
       </c>
       <c r="M12" t="n">
-        <v>3365.29129834381</v>
+        <v>1240.274289414726</v>
       </c>
       <c r="N12" t="n">
-        <v>3838.814341898265</v>
+        <v>1713.79733296918</v>
       </c>
       <c r="O12" t="n">
-        <v>4249.775621316319</v>
+        <v>2124.758612387235</v>
       </c>
       <c r="P12" t="n">
-        <v>4560.275212792422</v>
+        <v>2435.258203863338</v>
       </c>
       <c r="Q12" t="n">
-        <v>4717.916770439022</v>
+        <v>2592.899761509938</v>
       </c>
       <c r="R12" t="n">
-        <v>4717.772417031537</v>
+        <v>2592.755408102453</v>
       </c>
       <c r="S12" t="n">
-        <v>4588.334530525017</v>
+        <v>2463.317521595933</v>
       </c>
       <c r="T12" t="n">
-        <v>4395.691530202872</v>
+        <v>2270.674521273789</v>
       </c>
       <c r="U12" t="n">
-        <v>4167.623683337288</v>
+        <v>2042.606674408204</v>
       </c>
       <c r="V12" t="n">
-        <v>3932.471575105546</v>
+        <v>1807.454566176462</v>
       </c>
       <c r="W12" t="n">
-        <v>3678.234218377343</v>
+        <v>1553.21720944826</v>
       </c>
       <c r="X12" t="n">
-        <v>3470.382718171811</v>
+        <v>1345.365709242727</v>
       </c>
       <c r="Y12" t="n">
-        <v>3262.622419406857</v>
+        <v>1137.605410477773</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9077862828235</v>
+        <v>262.0611720340614</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9077862828235</v>
+        <v>262.0611720340614</v>
       </c>
       <c r="D13" t="n">
-        <v>484.7911468704878</v>
+        <v>262.0611720340614</v>
       </c>
       <c r="E13" t="n">
-        <v>484.7911468704878</v>
+        <v>262.0611720340614</v>
       </c>
       <c r="F13" t="n">
-        <v>337.9011993725774</v>
+        <v>262.0611720340614</v>
       </c>
       <c r="G13" t="n">
-        <v>337.9011993725774</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="H13" t="n">
-        <v>191.6840125904351</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I13" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J13" t="n">
         <v>139.480967855716</v>
       </c>
       <c r="K13" t="n">
-        <v>343.4681508045923</v>
+        <v>343.4681508045924</v>
       </c>
       <c r="L13" t="n">
-        <v>660.0279492530883</v>
+        <v>660.0279492530885</v>
       </c>
       <c r="M13" t="n">
-        <v>1004.184994852637</v>
+        <v>1004.184994852638</v>
       </c>
       <c r="N13" t="n">
         <v>1345.593371558502</v>
       </c>
       <c r="O13" t="n">
-        <v>1644.922970478915</v>
+        <v>1644.922970478916</v>
       </c>
       <c r="P13" t="n">
-        <v>1877.530470912574</v>
+        <v>1877.530470912575</v>
       </c>
       <c r="Q13" t="n">
-        <v>1955.140767065089</v>
+        <v>1955.14076706509</v>
       </c>
       <c r="R13" t="n">
-        <v>1955.140767065089</v>
+        <v>1955.14076706509</v>
       </c>
       <c r="S13" t="n">
-        <v>1763.454882891915</v>
+        <v>1765.814442623287</v>
       </c>
       <c r="T13" t="n">
-        <v>1763.454882891915</v>
+        <v>1544.047827192813</v>
       </c>
       <c r="U13" t="n">
-        <v>1763.454882891915</v>
+        <v>1254.944960318456</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.755551191571</v>
+        <v>1000.260472112569</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.338381154611</v>
+        <v>710.8433020756089</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.348830256593</v>
+        <v>482.8537511775916</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5562511130632</v>
+        <v>262.0611720340614</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2334.922984192268</v>
+        <v>2334.922984192267</v>
       </c>
       <c r="C14" t="n">
         <v>1965.960467251856</v>
       </c>
       <c r="D14" t="n">
-        <v>1607.694768645106</v>
+        <v>1607.694768645105</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.906516046862</v>
+        <v>1221.906516046861</v>
       </c>
       <c r="F14" t="n">
-        <v>810.9206112572541</v>
+        <v>810.9206112572534</v>
       </c>
       <c r="G14" t="n">
-        <v>396.6131300684019</v>
+        <v>396.6131300684013</v>
       </c>
       <c r="H14" t="n">
-        <v>106.8637681017652</v>
+        <v>106.8637681017651</v>
       </c>
       <c r="I14" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J14" t="n">
-        <v>514.2768770617009</v>
+        <v>346.8712280413482</v>
       </c>
       <c r="K14" t="n">
-        <v>943.4667641491623</v>
+        <v>1096.965073574263</v>
       </c>
       <c r="L14" t="n">
-        <v>1512.81653250498</v>
+        <v>1666.314841930082</v>
       </c>
       <c r="M14" t="n">
-        <v>2177.997289200756</v>
+        <v>2331.495598625858</v>
       </c>
       <c r="N14" t="n">
-        <v>2875.416824145407</v>
+        <v>3012.053483768876</v>
       </c>
       <c r="O14" t="n">
-        <v>3504.713075488939</v>
+        <v>3641.349735112409</v>
       </c>
       <c r="P14" t="n">
-        <v>4007.301865868355</v>
+        <v>4143.938525491825</v>
       </c>
       <c r="Q14" t="n">
-        <v>4546.744210776185</v>
+        <v>4611.803466450438</v>
       </c>
       <c r="R14" t="n">
-        <v>4717.916770439022</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S14" t="n">
         <v>4625.057832282288</v>
@@ -5309,19 +5309,19 @@
         <v>4422.428736315837</v>
       </c>
       <c r="U14" t="n">
-        <v>4168.959457106967</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V14" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W14" t="n">
-        <v>3485.127914493282</v>
+        <v>3485.127914493281</v>
       </c>
       <c r="X14" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>950.9359188181426</v>
+        <v>950.9359188181423</v>
       </c>
       <c r="C15" t="n">
-        <v>776.4828895370156</v>
+        <v>776.4828895370154</v>
       </c>
       <c r="D15" t="n">
-        <v>627.5484798757643</v>
+        <v>627.5484798757641</v>
       </c>
       <c r="E15" t="n">
-        <v>468.3110248703088</v>
+        <v>468.3110248703086</v>
       </c>
       <c r="F15" t="n">
-        <v>321.7764668971937</v>
+        <v>321.7764668971936</v>
       </c>
       <c r="G15" t="n">
-        <v>185.8226612101445</v>
+        <v>185.8226612101444</v>
       </c>
       <c r="H15" t="n">
-        <v>99.273689855436</v>
+        <v>99.27368985543588</v>
       </c>
       <c r="I15" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J15" t="n">
-        <v>225.9354374172502</v>
+        <v>225.9354374172504</v>
       </c>
       <c r="K15" t="n">
-        <v>225.9354374172502</v>
+        <v>528.9764867671153</v>
       </c>
       <c r="L15" t="n">
-        <v>679.7340670115776</v>
+        <v>982.7751163614432</v>
       </c>
       <c r="M15" t="n">
-        <v>860.0473382888445</v>
+        <v>1531.693580971733</v>
       </c>
       <c r="N15" t="n">
-        <v>1437.902686215247</v>
+        <v>1531.693580971733</v>
       </c>
       <c r="O15" t="n">
-        <v>1944.307641163497</v>
+        <v>1944.307641163496</v>
       </c>
       <c r="P15" t="n">
-        <v>2331.409196715653</v>
+        <v>2331.409196715652</v>
       </c>
       <c r="Q15" t="n">
         <v>2540.257138726933</v>
@@ -5400,7 +5400,7 @@
         <v>1326.911554603164</v>
       </c>
       <c r="Y15" t="n">
-        <v>1119.151255838211</v>
+        <v>1119.15125583821</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.8225447891189</v>
+        <v>1018.740268122009</v>
       </c>
       <c r="C16" t="n">
-        <v>472.4443597419389</v>
+        <v>849.8040851941023</v>
       </c>
       <c r="D16" t="n">
-        <v>472.4443597419389</v>
+        <v>699.6874457817665</v>
       </c>
       <c r="E16" t="n">
-        <v>324.5312661595458</v>
+        <v>551.7743521993734</v>
       </c>
       <c r="F16" t="n">
-        <v>324.5312661595458</v>
+        <v>404.884404701463</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5312661595458</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="H16" t="n">
-        <v>181.364894748926</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I16" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J16" t="n">
-        <v>163.2581048092509</v>
+        <v>163.258104809251</v>
       </c>
       <c r="K16" t="n">
-        <v>406.3184278206419</v>
+        <v>406.3184278206422</v>
       </c>
       <c r="L16" t="n">
-        <v>772.8783931378676</v>
+        <v>772.8783931378682</v>
       </c>
       <c r="M16" t="n">
-        <v>1169.75360415979</v>
+        <v>1169.753604159791</v>
       </c>
       <c r="N16" t="n">
-        <v>1562.626626145179</v>
+        <v>1562.62662614518</v>
       </c>
       <c r="O16" t="n">
-        <v>1909.492154775449</v>
+        <v>1909.492154775451</v>
       </c>
       <c r="P16" t="n">
-        <v>2182.77485516151</v>
+        <v>2182.774855161512</v>
       </c>
       <c r="Q16" t="n">
-        <v>2288.546551401335</v>
+        <v>2288.546551401337</v>
       </c>
       <c r="R16" t="n">
-        <v>2214.144859831204</v>
+        <v>2288.546551401337</v>
       </c>
       <c r="S16" t="n">
-        <v>2028.438948119389</v>
+        <v>2102.840639689522</v>
       </c>
       <c r="T16" t="n">
-        <v>2028.438948119389</v>
+        <v>1882.540162525526</v>
       </c>
       <c r="U16" t="n">
-        <v>1739.354797903754</v>
+        <v>1649.170862993796</v>
       </c>
       <c r="V16" t="n">
-        <v>1484.670309697867</v>
+        <v>1649.170862993796</v>
       </c>
       <c r="W16" t="n">
-        <v>1195.253139660906</v>
+        <v>1649.170862993796</v>
       </c>
       <c r="X16" t="n">
-        <v>967.2635887628887</v>
+        <v>1421.181312095779</v>
       </c>
       <c r="Y16" t="n">
-        <v>746.4710096193586</v>
+        <v>1200.388732952249</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2334.922984192268</v>
+        <v>2334.922984192267</v>
       </c>
       <c r="C17" t="n">
         <v>1965.960467251856</v>
       </c>
       <c r="D17" t="n">
-        <v>1607.694768645106</v>
+        <v>1607.694768645105</v>
       </c>
       <c r="E17" t="n">
         <v>1221.906516046861</v>
@@ -5504,13 +5504,13 @@
         <v>810.9206112572538</v>
       </c>
       <c r="G17" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684014</v>
       </c>
       <c r="H17" t="n">
         <v>106.8637681017652</v>
       </c>
       <c r="I17" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J17" t="n">
         <v>346.8712280413479</v>
@@ -5519,46 +5519,46 @@
         <v>776.0611151288092</v>
       </c>
       <c r="L17" t="n">
-        <v>1739.87002305992</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.050779755696</v>
+        <v>2455.610038338307</v>
       </c>
       <c r="N17" t="n">
-        <v>3085.608664898713</v>
+        <v>3136.167923481324</v>
       </c>
       <c r="O17" t="n">
-        <v>3714.904916242245</v>
+        <v>3765.464174824856</v>
       </c>
       <c r="P17" t="n">
-        <v>4217.493706621661</v>
+        <v>4268.052965204272</v>
       </c>
       <c r="Q17" t="n">
-        <v>4546.744210776185</v>
+        <v>4597.303469358796</v>
       </c>
       <c r="R17" t="n">
-        <v>4717.916770439022</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S17" t="n">
-        <v>4625.057832282289</v>
+        <v>4625.057832282288</v>
       </c>
       <c r="T17" t="n">
-        <v>4422.428736315838</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U17" t="n">
-        <v>4168.959457106967</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V17" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W17" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X17" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>185.8226612101445</v>
       </c>
       <c r="H18" t="n">
-        <v>99.273689855436</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I18" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J18" t="n">
-        <v>94.35833540878045</v>
+        <v>225.9354374172501</v>
       </c>
       <c r="K18" t="n">
-        <v>94.35833540878045</v>
+        <v>528.9764867671146</v>
       </c>
       <c r="L18" t="n">
-        <v>548.1569650031079</v>
+        <v>982.7751163614421</v>
       </c>
       <c r="M18" t="n">
-        <v>1097.075429613397</v>
+        <v>1437.902686215247</v>
       </c>
       <c r="N18" t="n">
-        <v>1674.930777539799</v>
+        <v>1437.902686215247</v>
       </c>
       <c r="O18" t="n">
         <v>1944.307641163497</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>955.6301880498189</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="C19" t="n">
-        <v>786.694005121912</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="D19" t="n">
-        <v>786.694005121912</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="E19" t="n">
-        <v>638.7809115395189</v>
+        <v>408.6079807887536</v>
       </c>
       <c r="F19" t="n">
-        <v>491.8909640416085</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G19" t="n">
-        <v>324.5312661595458</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="H19" t="n">
-        <v>181.364894748926</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I19" t="n">
-        <v>94.35833540878045</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J19" t="n">
         <v>163.2581048092509</v>
@@ -5677,7 +5677,7 @@
         <v>406.3184278206419</v>
       </c>
       <c r="L19" t="n">
-        <v>772.8783931378676</v>
+        <v>772.8783931378675</v>
       </c>
       <c r="M19" t="n">
         <v>1169.75360415979</v>
@@ -5695,28 +5695,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R19" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S19" t="n">
-        <v>2288.546551401335</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.546551401335</v>
+        <v>1872.224384119024</v>
       </c>
       <c r="U19" t="n">
-        <v>1999.4624011857</v>
+        <v>1583.140233903388</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.777912979813</v>
+        <v>1328.455745697501</v>
       </c>
       <c r="W19" t="n">
-        <v>1455.360742942852</v>
+        <v>1039.038575660541</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.071232023589</v>
+        <v>811.0490247625235</v>
       </c>
       <c r="Y19" t="n">
-        <v>1137.278652880059</v>
+        <v>590.2564456189933</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F20" t="n">
-        <v>810.9206112572533</v>
+        <v>810.9206112572531</v>
       </c>
       <c r="G20" t="n">
-        <v>396.613130068401</v>
+        <v>396.6131300684015</v>
       </c>
       <c r="H20" t="n">
         <v>106.8637681017652</v>
@@ -5750,19 +5750,19 @@
         <v>94.35833540878042</v>
       </c>
       <c r="J20" t="n">
-        <v>346.8712280413479</v>
+        <v>392.905020885947</v>
       </c>
       <c r="K20" t="n">
-        <v>776.0611151288092</v>
+        <v>822.0949079734083</v>
       </c>
       <c r="L20" t="n">
-        <v>1758.895485889573</v>
+        <v>1804.929278734172</v>
       </c>
       <c r="M20" t="n">
-        <v>2424.076242585349</v>
+        <v>2470.110035429948</v>
       </c>
       <c r="N20" t="n">
-        <v>3104.634127728365</v>
+        <v>3150.667920572965</v>
       </c>
       <c r="O20" t="n">
         <v>3779.964171916497</v>
@@ -5780,7 +5780,7 @@
         <v>4625.057832282288</v>
       </c>
       <c r="T20" t="n">
-        <v>4422.428736315836</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U20" t="n">
         <v>4168.959457106966</v>
@@ -5835,22 +5835,22 @@
         <v>528.9764867671146</v>
       </c>
       <c r="L21" t="n">
-        <v>528.9764867671146</v>
+        <v>982.7751163614421</v>
       </c>
       <c r="M21" t="n">
-        <v>860.0473382888445</v>
+        <v>1531.693580971731</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.902686215247</v>
+        <v>1969.072619194017</v>
       </c>
       <c r="O21" t="n">
-        <v>1944.307641163497</v>
+        <v>1969.072619194017</v>
       </c>
       <c r="P21" t="n">
-        <v>2331.409196715653</v>
+        <v>2356.174174746173</v>
       </c>
       <c r="Q21" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R21" t="n">
         <v>2565.022116757453</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1039.945626537895</v>
+        <v>430.6542162187501</v>
       </c>
       <c r="C22" t="n">
-        <v>871.0094436099882</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="D22" t="n">
-        <v>720.8928041976525</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="E22" t="n">
-        <v>572.9797106152594</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="F22" t="n">
-        <v>426.089763117349</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G22" t="n">
-        <v>258.7300652352862</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="H22" t="n">
-        <v>181.364894748926</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I22" t="n">
         <v>94.35833540878042</v>
@@ -5935,25 +5935,25 @@
         <v>2214.144859831204</v>
       </c>
       <c r="S22" t="n">
-        <v>2214.144859831204</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T22" t="n">
-        <v>2214.144859831204</v>
+        <v>1894.27061954902</v>
       </c>
       <c r="U22" t="n">
-        <v>1925.060709615569</v>
+        <v>1605.186469333385</v>
       </c>
       <c r="V22" t="n">
-        <v>1670.376221409682</v>
+        <v>1350.501981127498</v>
       </c>
       <c r="W22" t="n">
-        <v>1670.376221409682</v>
+        <v>1061.084811090537</v>
       </c>
       <c r="X22" t="n">
-        <v>1442.386670511665</v>
+        <v>833.09526019252</v>
       </c>
       <c r="Y22" t="n">
-        <v>1221.594091368135</v>
+        <v>612.3026810489898</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F23" t="n">
-        <v>810.9206112572538</v>
+        <v>810.920611257254</v>
       </c>
       <c r="G23" t="n">
         <v>396.6131300684015</v>
@@ -5984,7 +5984,7 @@
         <v>106.8637681017652</v>
       </c>
       <c r="I23" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J23" t="n">
         <v>346.8712280413479</v>
@@ -5993,37 +5993,37 @@
         <v>776.0611151288092</v>
       </c>
       <c r="L23" t="n">
-        <v>1758.895485889573</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M23" t="n">
-        <v>2470.110035429948</v>
+        <v>2010.591640180403</v>
       </c>
       <c r="N23" t="n">
-        <v>3150.667920572965</v>
+        <v>2691.14952532342</v>
       </c>
       <c r="O23" t="n">
-        <v>3779.964171916497</v>
+        <v>3320.445776666952</v>
       </c>
       <c r="P23" t="n">
-        <v>4282.552962295913</v>
+        <v>4072.361121542609</v>
       </c>
       <c r="Q23" t="n">
         <v>4611.803466450438</v>
       </c>
       <c r="R23" t="n">
-        <v>4717.916770439021</v>
+        <v>4717.916770439022</v>
       </c>
       <c r="S23" t="n">
-        <v>4625.057832282288</v>
+        <v>4625.057832282289</v>
       </c>
       <c r="T23" t="n">
-        <v>4422.428736315837</v>
+        <v>4422.428736315838</v>
       </c>
       <c r="U23" t="n">
-        <v>4168.959457106966</v>
+        <v>4168.959457106967</v>
       </c>
       <c r="V23" t="n">
-        <v>3837.896569763395</v>
+        <v>3837.896569763396</v>
       </c>
       <c r="W23" t="n">
         <v>3485.127914493281</v>
@@ -6060,34 +6060,34 @@
         <v>185.8226612101445</v>
       </c>
       <c r="H24" t="n">
-        <v>99.27368985543598</v>
+        <v>99.273689855436</v>
       </c>
       <c r="I24" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J24" t="n">
-        <v>225.9354374172501</v>
+        <v>225.9354374172502</v>
       </c>
       <c r="K24" t="n">
-        <v>225.9354374172501</v>
+        <v>528.9764867671147</v>
       </c>
       <c r="L24" t="n">
-        <v>679.7340670115776</v>
+        <v>982.7751163614421</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.652531621867</v>
+        <v>1531.693580971731</v>
       </c>
       <c r="N24" t="n">
-        <v>1806.507879548269</v>
+        <v>1671.515606257047</v>
       </c>
       <c r="O24" t="n">
-        <v>2312.912834496519</v>
+        <v>2177.920561205297</v>
       </c>
       <c r="P24" t="n">
-        <v>2331.409196715653</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q24" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R24" t="n">
         <v>2565.022116757453</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.4222500505995</v>
+        <v>430.6542162187501</v>
       </c>
       <c r="C25" t="n">
-        <v>825.4222500505995</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="D25" t="n">
-        <v>786.694005121912</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="E25" t="n">
-        <v>638.7809115395189</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="F25" t="n">
-        <v>491.8909640416085</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G25" t="n">
-        <v>324.5312661595458</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H25" t="n">
-        <v>181.364894748926</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="I25" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J25" t="n">
         <v>163.2581048092509</v>
@@ -6151,7 +6151,7 @@
         <v>406.3184278206419</v>
       </c>
       <c r="L25" t="n">
-        <v>772.8783931378675</v>
+        <v>772.8783931378676</v>
       </c>
       <c r="M25" t="n">
         <v>1169.75360415979</v>
@@ -6169,28 +6169,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R25" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S25" t="n">
-        <v>2288.546551401335</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T25" t="n">
-        <v>2068.24607423734</v>
+        <v>1894.27061954902</v>
       </c>
       <c r="U25" t="n">
-        <v>1779.161924021704</v>
+        <v>1605.186469333385</v>
       </c>
       <c r="V25" t="n">
-        <v>1524.477435815817</v>
+        <v>1350.501981127498</v>
       </c>
       <c r="W25" t="n">
-        <v>1235.060265778857</v>
+        <v>1061.084811090537</v>
       </c>
       <c r="X25" t="n">
-        <v>1007.070714880839</v>
+        <v>833.09526019252</v>
       </c>
       <c r="Y25" t="n">
-        <v>1007.070714880839</v>
+        <v>612.3026810489898</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2334.922984192267</v>
       </c>
       <c r="C26" t="n">
-        <v>1965.960467251855</v>
+        <v>1965.960467251856</v>
       </c>
       <c r="D26" t="n">
         <v>1607.694768645105</v>
@@ -6212,7 +6212,7 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572533</v>
+        <v>810.9206112572538</v>
       </c>
       <c r="G26" t="n">
         <v>396.6131300684014</v>
@@ -6224,13 +6224,13 @@
         <v>94.35833540878042</v>
       </c>
       <c r="J26" t="n">
-        <v>485.4856648454397</v>
+        <v>346.8712280413479</v>
       </c>
       <c r="K26" t="n">
-        <v>1235.579510378354</v>
+        <v>790.5611122204498</v>
       </c>
       <c r="L26" t="n">
-        <v>1804.929278734172</v>
+        <v>1359.910880576268</v>
       </c>
       <c r="M26" t="n">
         <v>2470.110035429948</v>
@@ -6254,7 +6254,7 @@
         <v>4625.057832282288</v>
       </c>
       <c r="T26" t="n">
-        <v>4422.428736315836</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U26" t="n">
         <v>4168.959457106966</v>
@@ -6312,19 +6312,19 @@
         <v>982.7751163614421</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7751163614421</v>
+        <v>1531.693580971731</v>
       </c>
       <c r="N27" t="n">
-        <v>1437.902686215247</v>
+        <v>2109.548928898133</v>
       </c>
       <c r="O27" t="n">
-        <v>1944.307641163497</v>
+        <v>2177.920561205297</v>
       </c>
       <c r="P27" t="n">
-        <v>2331.409196715653</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q27" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R27" t="n">
         <v>2565.022116757453</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.8040851941023</v>
+        <v>660.8271469695154</v>
       </c>
       <c r="C28" t="n">
-        <v>849.8040851941023</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="D28" t="n">
-        <v>699.6874457817665</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="E28" t="n">
-        <v>551.7743521993734</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="F28" t="n">
-        <v>404.884404701463</v>
+        <v>491.8909640416085</v>
       </c>
       <c r="G28" t="n">
-        <v>237.5247068194003</v>
+        <v>324.5312661595458</v>
       </c>
       <c r="H28" t="n">
-        <v>94.35833540878042</v>
+        <v>181.364894748926</v>
       </c>
       <c r="I28" t="n">
         <v>94.35833540878042</v>
@@ -6409,25 +6409,25 @@
         <v>2214.144859831204</v>
       </c>
       <c r="S28" t="n">
-        <v>2214.144859831204</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T28" t="n">
-        <v>2214.144859831204</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U28" t="n">
-        <v>1925.060709615569</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="V28" t="n">
-        <v>1670.376221409682</v>
+        <v>1553.453982749506</v>
       </c>
       <c r="W28" t="n">
-        <v>1380.959051372721</v>
+        <v>1291.257741841303</v>
       </c>
       <c r="X28" t="n">
-        <v>1152.969500474704</v>
+        <v>1063.268190943285</v>
       </c>
       <c r="Y28" t="n">
-        <v>932.176921331174</v>
+        <v>842.4756117997551</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2334.922984192267</v>
+        <v>2334.922984192266</v>
       </c>
       <c r="C29" t="n">
-        <v>1965.960467251856</v>
+        <v>1965.960467251855</v>
       </c>
       <c r="D29" t="n">
-        <v>1607.694768645106</v>
+        <v>1607.694768645104</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.906516046861</v>
+        <v>1221.90651604686</v>
       </c>
       <c r="F29" t="n">
-        <v>810.9206112572537</v>
+        <v>810.9206112572533</v>
       </c>
       <c r="G29" t="n">
-        <v>396.6131300684014</v>
+        <v>396.613130068401</v>
       </c>
       <c r="H29" t="n">
         <v>106.8637681017652</v>
       </c>
       <c r="I29" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J29" t="n">
-        <v>346.8712280413478</v>
+        <v>346.8712280413479</v>
       </c>
       <c r="K29" t="n">
         <v>776.0611151288092</v>
@@ -6470,22 +6470,22 @@
         <v>1345.410883484627</v>
       </c>
       <c r="M29" t="n">
-        <v>2093.11785597983</v>
+        <v>2455.610038338307</v>
       </c>
       <c r="N29" t="n">
-        <v>2773.675741122847</v>
+        <v>3136.167923481324</v>
       </c>
       <c r="O29" t="n">
-        <v>3779.964171916497</v>
+        <v>3765.464174824856</v>
       </c>
       <c r="P29" t="n">
-        <v>4282.552962295913</v>
+        <v>4268.052965204272</v>
       </c>
       <c r="Q29" t="n">
-        <v>4611.803466450437</v>
+        <v>4597.303469358796</v>
       </c>
       <c r="R29" t="n">
-        <v>4717.91677043902</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S29" t="n">
         <v>4625.057832282288</v>
@@ -6506,7 +6506,7 @@
         <v>3111.6621562322</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.522824256389</v>
+        <v>2721.522824256388</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>950.9359188181423</v>
+        <v>950.9359188181426</v>
       </c>
       <c r="C30" t="n">
-        <v>776.4828895370154</v>
+        <v>776.4828895370156</v>
       </c>
       <c r="D30" t="n">
-        <v>627.5484798757641</v>
+        <v>627.5484798757643</v>
       </c>
       <c r="E30" t="n">
-        <v>468.3110248703086</v>
+        <v>468.3110248703088</v>
       </c>
       <c r="F30" t="n">
-        <v>321.7764668971936</v>
+        <v>321.7764668971937</v>
       </c>
       <c r="G30" t="n">
         <v>185.8226612101445</v>
       </c>
       <c r="H30" t="n">
-        <v>99.27368985543595</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I30" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J30" t="n">
         <v>225.9354374172501</v>
@@ -6552,16 +6552,16 @@
         <v>1531.693580971731</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.750628226527</v>
+        <v>2109.548928898133</v>
       </c>
       <c r="O30" t="n">
-        <v>2153.155583174777</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="P30" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q30" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R30" t="n">
         <v>2565.022116757453</v>
@@ -6585,7 +6585,7 @@
         <v>1326.911554603164</v>
       </c>
       <c r="Y30" t="n">
-        <v>1119.15125583821</v>
+        <v>1119.151255838211</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>720.7105351272803</v>
+        <v>430.6542162187501</v>
       </c>
       <c r="C31" t="n">
-        <v>551.7743521993734</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="D31" t="n">
-        <v>551.7743521993734</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="E31" t="n">
-        <v>551.7743521993734</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="F31" t="n">
-        <v>404.884404701463</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G31" t="n">
-        <v>237.5247068194003</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="H31" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I31" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J31" t="n">
         <v>163.2581048092509</v>
@@ -6649,22 +6649,22 @@
         <v>2028.438948119389</v>
       </c>
       <c r="T31" t="n">
-        <v>1808.138470955393</v>
+        <v>1894.27061954902</v>
       </c>
       <c r="U31" t="n">
-        <v>1808.138470955393</v>
+        <v>1605.186469333385</v>
       </c>
       <c r="V31" t="n">
-        <v>1553.453982749506</v>
+        <v>1350.501981127498</v>
       </c>
       <c r="W31" t="n">
-        <v>1264.036812712545</v>
+        <v>1061.084811090537</v>
       </c>
       <c r="X31" t="n">
-        <v>1123.15157910105</v>
+        <v>833.09526019252</v>
       </c>
       <c r="Y31" t="n">
-        <v>902.35899995752</v>
+        <v>612.3026810489898</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796686</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6698,16 +6698,16 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889756</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400163</v>
@@ -6780,25 +6780,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>670.3561405779135</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.274605188203</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1797.129953114605</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>2303.534908062855</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609051</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897935</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6883,7 +6883,7 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127669</v>
@@ -6901,7 +6901,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
         <v>766.683188695145</v>
@@ -6956,31 +6956,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>879.6062951712933</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1428.524759781582</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749448</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042788</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7120,22 +7120,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7254,25 +7254,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
@@ -7333,7 +7333,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
@@ -7342,37 +7342,37 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7430,31 +7430,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>688.8525027970467</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.626315333738</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902789</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7582,10 +7582,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7597,19 +7597,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7631,25 +7631,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7661,25 +7661,25 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
         <v>3496.71823738206</v>
@@ -7719,31 +7719,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1068.51702494374</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.372372870142</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2152.777327818392</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2539.878883370548</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,10 +7819,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7840,10 +7840,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>139.6067899769681</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>315.842050239211</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>97.7088625366969</v>
       </c>
       <c r="K6" t="n">
-        <v>88.05574151495175</v>
+        <v>88.05574151495145</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>291.650901803748</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>236.1170749720748</v>
+        <v>453.1400171549651</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>100.6259618563831</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>201.4403547380593</v>
+        <v>73.72552941670631</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>17.03196949660071</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>140.0145826303917</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>398.4435753285786</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>14.64646170872862</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>46.49878065111028</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>46.49878065111034</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>46.49878065111022</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>251.8450045416569</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>140.0145826303958</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>14.64646170872783</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>83.35981393881514</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>14.64646170872862</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>303.0214613638694</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>262.0330046883877</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.54455953715791</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>58.34293041167467</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>58.34293041167393</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.335964134056638</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>45.52530494048776</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.79241790191969</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442963</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>55.15770217706697</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>218.097472392356</v>
+        <v>63.44505403199435</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>129.3930395789662</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>65.14318891501698</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>218.097472392356</v>
+        <v>85.27082710769079</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.2745105388118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>85.27082710769079</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.28287240623636</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>26.94871983746941</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I31" t="n">
         <v>86.13649374674407</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>85.27082710769079</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>86.23327411365679</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71978.48674707994</v>
+        <v>71978.48674707991</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>78951.94765131972</v>
+        <v>78951.94765131969</v>
       </c>
       <c r="F2" t="n">
+        <v>80295.50695705555</v>
+      </c>
+      <c r="G2" t="n">
         <v>80295.50695705556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>80295.50695705549</v>
       </c>
       <c r="H2" t="n">
         <v>80295.50695705554</v>
       </c>
       <c r="I2" t="n">
-        <v>80295.50695705551</v>
+        <v>80295.50695705556</v>
       </c>
       <c r="J2" t="n">
-        <v>80295.50695705555</v>
+        <v>80295.50695705558</v>
       </c>
       <c r="K2" t="n">
-        <v>80295.50695705555</v>
+        <v>80295.50695705556</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642823</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642827</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642828</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642825</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642827</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>139285.2269028866</v>
+        <v>139285.2269028877</v>
       </c>
       <c r="D3" t="n">
-        <v>285333.2712174762</v>
+        <v>285333.2712174752</v>
       </c>
       <c r="E3" t="n">
-        <v>722888.6705702831</v>
+        <v>722888.6705702833</v>
       </c>
       <c r="F3" t="n">
-        <v>148906.5348318538</v>
+        <v>148906.5348318543</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>32384.28546543733</v>
+        <v>32384.28546543765</v>
       </c>
       <c r="L3" t="n">
-        <v>64536.99804424053</v>
+        <v>64536.99804424024</v>
       </c>
       <c r="M3" t="n">
-        <v>125895.8471955953</v>
+        <v>125895.8471955951</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>284310.8296593376</v>
       </c>
       <c r="C4" t="n">
-        <v>303125.1983228021</v>
+        <v>303125.1983228019</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>30959.70941344824</v>
+        <v>30959.70941344819</v>
       </c>
       <c r="F4" t="n">
-        <v>14598.74046120318</v>
+        <v>14598.74046120309</v>
       </c>
       <c r="G4" t="n">
         <v>14598.74046120317</v>
       </c>
       <c r="H4" t="n">
-        <v>14598.74046120316</v>
+        <v>14598.74046120319</v>
       </c>
       <c r="I4" t="n">
-        <v>14598.7404612032</v>
+        <v>14598.74046120318</v>
       </c>
       <c r="J4" t="n">
         <v>14598.74046120316</v>
       </c>
       <c r="K4" t="n">
-        <v>14598.74046120316</v>
+        <v>14598.74046120317</v>
       </c>
       <c r="L4" t="n">
-        <v>37300.09932593614</v>
+        <v>37300.09932593617</v>
       </c>
       <c r="M4" t="n">
-        <v>37300.09932593619</v>
+        <v>37300.09932593616</v>
       </c>
       <c r="N4" t="n">
         <v>37300.09932593616</v>
       </c>
       <c r="O4" t="n">
-        <v>37300.09932593617</v>
+        <v>37300.09932593616</v>
       </c>
       <c r="P4" t="n">
-        <v>37300.09932593616</v>
+        <v>37300.09932593618</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>61193.07568227804</v>
+        <v>61193.07568227813</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,37 +26479,37 @@
         <v>95469.46698360702</v>
       </c>
       <c r="F5" t="n">
-        <v>99576.22009019181</v>
+        <v>99576.22009019183</v>
       </c>
       <c r="G5" t="n">
-        <v>99576.22009019181</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="H5" t="n">
         <v>99576.2200901918</v>
       </c>
       <c r="I5" t="n">
-        <v>99576.2200901918</v>
+        <v>99576.22009019181</v>
       </c>
       <c r="J5" t="n">
         <v>99576.2200901918</v>
       </c>
       <c r="K5" t="n">
-        <v>99576.22009019178</v>
+        <v>99576.2200901918</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="P5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95106.4341021553</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-389807.0638758508</v>
+        <v>-390060.2061318345</v>
       </c>
       <c r="C6" t="n">
-        <v>-421499.3239215384</v>
+        <v>-421499.3239215394</v>
       </c>
       <c r="D6" t="n">
-        <v>-504868.4972927924</v>
+        <v>-504868.4972927914</v>
       </c>
       <c r="E6" t="n">
-        <v>-770365.8993160187</v>
+        <v>-770444.7050493966</v>
       </c>
       <c r="F6" t="n">
-        <v>-182785.9884261932</v>
+        <v>-182831.205176928</v>
       </c>
       <c r="G6" t="n">
-        <v>-33879.45359433949</v>
+        <v>-33924.67034507283</v>
       </c>
       <c r="H6" t="n">
-        <v>-33879.45359433943</v>
+        <v>-33924.67034507378</v>
       </c>
       <c r="I6" t="n">
-        <v>-33879.4535943395</v>
+        <v>-33924.67034507375</v>
       </c>
       <c r="J6" t="n">
-        <v>-106134.1484654785</v>
+        <v>-106179.3652162127</v>
       </c>
       <c r="K6" t="n">
-        <v>-66263.73905977671</v>
+        <v>-66308.95581051137</v>
       </c>
       <c r="L6" t="n">
-        <v>-114839.3544859037</v>
+        <v>-114839.3544859035</v>
       </c>
       <c r="M6" t="n">
-        <v>-176198.2036372585</v>
+        <v>-176198.2036372583</v>
       </c>
       <c r="N6" t="n">
         <v>-50302.35644166316</v>
       </c>
       <c r="O6" t="n">
-        <v>-50302.3564416632</v>
+        <v>-50302.35644166311</v>
       </c>
       <c r="P6" t="n">
-        <v>-50302.3564416631</v>
+        <v>-50302.35644166319</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>143.3382386043721</v>
+        <v>143.3382386043729</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1278.159870620123</v>
+        <v>1278.159870620124</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,25 +26790,25 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>401.9852315905054</v>
+        <v>401.9852315905064</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="H4" t="n">
         <v>1179.479192609755</v>
       </c>
       <c r="I4" t="n">
-        <v>1179.479192609755</v>
+        <v>1179.479192609756</v>
       </c>
       <c r="J4" t="n">
         <v>1179.479192609755</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>108.3169778852468</v>
+        <v>108.3169778852477</v>
       </c>
       <c r="D3" t="n">
-        <v>234.4054256127145</v>
+        <v>234.4054256127137</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762112</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268252</v>
+        <v>188.3831700268258</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-6.765505698301703e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>125.82871788815</v>
+        <v>125.828717888151</v>
       </c>
       <c r="D4" t="n">
-        <v>272.3020411640501</v>
+        <v>272.3020411640492</v>
       </c>
       <c r="E4" t="n">
-        <v>505.1919198552</v>
+        <v>505.1919198551997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>125.8287178881498</v>
+        <v>125.828717888151</v>
       </c>
       <c r="L4" t="n">
-        <v>155.077960743248</v>
+        <v>155.0779607432469</v>
       </c>
       <c r="M4" t="n">
-        <v>505.1919198552</v>
+        <v>505.1919198551994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>125.82871788815</v>
+        <v>125.828717888151</v>
       </c>
       <c r="L4" t="n">
-        <v>272.3020411640501</v>
+        <v>272.3020411640492</v>
       </c>
       <c r="M4" t="n">
-        <v>505.1919198552</v>
+        <v>505.1919198551997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>157.4928962163016</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.3233684999723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>75.4569531186075</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.2339252492739</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.70078623405945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.89081415120603</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>333.5734443826736</v>
+        <v>333.5734443826735</v>
       </c>
       <c r="I5" t="n">
-        <v>31.25161831617129</v>
+        <v>188.260623464697</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>113.6722510839361</v>
+        <v>113.6722510839358</v>
       </c>
       <c r="S5" t="n">
-        <v>195.8891344618348</v>
+        <v>71.07403571769373</v>
       </c>
       <c r="T5" t="n">
         <v>220.5733846817569</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2995541778331</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0352047254578</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>109.2577951666207</v>
       </c>
       <c r="I6" t="n">
-        <v>78.78148970948752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>165.956402797333</v>
+        <v>165.9564027973329</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9210983679648</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>35.05817184449606</v>
+        <v>95.7672661861553</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>159.9290610753891</v>
       </c>
       <c r="I7" t="n">
-        <v>147.6773127419589</v>
+        <v>147.6773127419588</v>
       </c>
       <c r="J7" t="n">
-        <v>75.08472959821046</v>
+        <v>75.08472959821034</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>64.51796922243408</v>
       </c>
       <c r="R7" t="n">
-        <v>165.6712450142642</v>
+        <v>165.6712450142641</v>
       </c>
       <c r="S7" t="n">
         <v>219.5120176532906</v>
       </c>
       <c r="T7" t="n">
-        <v>226.8411800488708</v>
+        <v>226.8411800488707</v>
       </c>
       <c r="U7" t="n">
-        <v>282.2441651257935</v>
+        <v>286.3049305133495</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.48374843648767</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>251.8122673837021</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>322.5654790836142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>126.9654232524977</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>34.19566451747881</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221326</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5762341250427014</v>
+        <v>0.5762341250427049</v>
       </c>
       <c r="H5" t="n">
-        <v>5.901357733093568</v>
+        <v>5.901357733093603</v>
       </c>
       <c r="I5" t="n">
-        <v>22.21526610570877</v>
+        <v>22.2152661057089</v>
       </c>
       <c r="J5" t="n">
-        <v>48.90715107034303</v>
+        <v>48.90715107034332</v>
       </c>
       <c r="K5" t="n">
-        <v>73.2991415834006</v>
+        <v>73.29914158340102</v>
       </c>
       <c r="L5" t="n">
-        <v>90.93406668767619</v>
+        <v>90.93406668767673</v>
       </c>
       <c r="M5" t="n">
-        <v>101.1816703089043</v>
+        <v>101.1816703089049</v>
       </c>
       <c r="N5" t="n">
-        <v>102.8188955166819</v>
+        <v>102.8188955166825</v>
       </c>
       <c r="O5" t="n">
-        <v>97.08896743578853</v>
+        <v>97.08896743578912</v>
       </c>
       <c r="P5" t="n">
-        <v>82.86318747379684</v>
+        <v>82.86318747379732</v>
       </c>
       <c r="Q5" t="n">
-        <v>62.22680287070507</v>
+        <v>62.22680287070544</v>
       </c>
       <c r="R5" t="n">
-        <v>36.19686685721363</v>
+        <v>36.19686685721384</v>
       </c>
       <c r="S5" t="n">
-        <v>13.13093512441057</v>
+        <v>13.13093512441065</v>
       </c>
       <c r="T5" t="n">
-        <v>2.522464882374427</v>
+        <v>2.522464882374442</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04609873000341611</v>
+        <v>0.04609873000341638</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3083124377528004</v>
+        <v>0.3083124377528022</v>
       </c>
       <c r="H6" t="n">
-        <v>2.97764906987573</v>
+        <v>2.977649069875748</v>
       </c>
       <c r="I6" t="n">
-        <v>10.61514314192756</v>
+        <v>10.61514314192762</v>
       </c>
       <c r="J6" t="n">
-        <v>29.12876412996962</v>
+        <v>29.1287641299698</v>
       </c>
       <c r="K6" t="n">
-        <v>49.78569745940725</v>
+        <v>49.78569745940754</v>
       </c>
       <c r="L6" t="n">
-        <v>66.94301417084378</v>
+        <v>66.94301417084418</v>
       </c>
       <c r="M6" t="n">
-        <v>78.11934003938278</v>
+        <v>78.11934003938325</v>
       </c>
       <c r="N6" t="n">
-        <v>80.18692651887416</v>
+        <v>80.18692651887464</v>
       </c>
       <c r="O6" t="n">
-        <v>73.35537197708842</v>
+        <v>73.35537197708886</v>
       </c>
       <c r="P6" t="n">
-        <v>58.87415313544484</v>
+        <v>58.87415313544519</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.35581222963817</v>
+        <v>39.3558122296384</v>
       </c>
       <c r="R6" t="n">
-        <v>19.1424160913537</v>
+        <v>19.14241609135381</v>
       </c>
       <c r="S6" t="n">
-        <v>5.726768306504862</v>
+        <v>5.726768306504897</v>
       </c>
       <c r="T6" t="n">
-        <v>1.242715483749226</v>
+        <v>1.242715483749233</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02028371301005266</v>
+        <v>0.02028371301005278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2584787909259169</v>
+        <v>0.2584787909259184</v>
       </c>
       <c r="H7" t="n">
-        <v>2.298111432050426</v>
+        <v>2.29811143205044</v>
       </c>
       <c r="I7" t="n">
-        <v>7.773162185299393</v>
+        <v>7.773162185299439</v>
       </c>
       <c r="J7" t="n">
-        <v>18.27445051846232</v>
+        <v>18.27445051846243</v>
       </c>
       <c r="K7" t="n">
-        <v>30.03053589121106</v>
+        <v>30.03053589121124</v>
       </c>
       <c r="L7" t="n">
-        <v>38.42874678911313</v>
+        <v>38.42874678911337</v>
       </c>
       <c r="M7" t="n">
-        <v>40.51772538123258</v>
+        <v>40.51772538123282</v>
       </c>
       <c r="N7" t="n">
-        <v>39.55430443323601</v>
+        <v>39.55430443323625</v>
       </c>
       <c r="O7" t="n">
-        <v>36.53480219378324</v>
+        <v>36.53480219378346</v>
       </c>
       <c r="P7" t="n">
-        <v>31.26183485889451</v>
+        <v>31.2618348588947</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.64407402926019</v>
+        <v>21.64407402926031</v>
       </c>
       <c r="R7" t="n">
-        <v>11.62214636290531</v>
+        <v>11.62214636290538</v>
       </c>
       <c r="S7" t="n">
-        <v>4.504580383681659</v>
+        <v>4.504580383681685</v>
       </c>
       <c r="T7" t="n">
-        <v>1.104409379410735</v>
+        <v>1.104409379410742</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01409884314141366</v>
+        <v>0.01409884314141375</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171349</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879735</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043511</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.109432438371</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171643</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869759</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654306</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117601</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565686</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972016</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581563</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734509</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537078</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031965</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533504</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781109</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115858</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247275</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.936833915559</v>
       </c>
       <c r="M15" t="n">
-        <v>324.268651373803</v>
+        <v>696.5971294879675</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>559.3781234260234</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892356</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.939291269133</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877216</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426487002</v>
       </c>
       <c r="T15" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047346</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216617</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092594</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051429</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838148</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151669</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692051</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754557</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696486</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246179</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381987</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636387</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227399</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227503</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925544</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1257206430118155</v>
+        <v>0.1257206430118156</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>601.8588519561645</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>414.6940864885836</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
@@ -32555,16 +32555,16 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>476.5490354591192</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>573.1387203886727</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>524.9860796892351</v>
@@ -32573,7 +32573,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32789,7 +32789,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
@@ -32798,19 +32798,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>152.6576015750712</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33032,22 +33032,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>591.0665301174795</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33272,19 +33272,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>247.560951734642</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33500,13 +33500,13 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
@@ -33515,13 +33515,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
-        <v>363.6151187581817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33740,25 +33740,25 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>502.1985563837558</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33974,28 +33974,28 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>324.2686513738028</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34214,7 +34214,7 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>309.517958025931</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
         <v>696.597129487967</v>
@@ -34223,16 +34223,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34451,7 +34451,7 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
         <v>696.597129487967</v>
@@ -34460,13 +34460,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>155.906326564042</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>13.9292920959679</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>204.0920904142118</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.95786171573051</v>
+        <v>36.9578617157308</v>
       </c>
       <c r="K5" t="n">
-        <v>177.3547031095848</v>
+        <v>177.3547031095852</v>
       </c>
       <c r="L5" t="n">
-        <v>272.8288662681394</v>
+        <v>272.8288662681399</v>
       </c>
       <c r="M5" t="n">
-        <v>320.3489705744641</v>
+        <v>320.3489705744647</v>
       </c>
       <c r="N5" t="n">
-        <v>310.7527563320751</v>
+        <v>310.7527563320758</v>
       </c>
       <c r="O5" t="n">
-        <v>247.7909372768472</v>
+        <v>247.7909372768477</v>
       </c>
       <c r="P5" t="n">
-        <v>173.4288998900099</v>
+        <v>173.4288998900104</v>
       </c>
       <c r="Q5" t="n">
-        <v>52.23610365616027</v>
+        <v>52.23610365616064</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28.38217280371176</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>299.2289796944287</v>
+        <v>220.039536194718</v>
       </c>
       <c r="M6" t="n">
-        <v>401.6903698673644</v>
+        <v>401.6903698673648</v>
       </c>
       <c r="N6" t="n">
-        <v>184.9622894076156</v>
+        <v>401.9852315905064</v>
       </c>
       <c r="O6" t="n">
-        <v>324.6214468093735</v>
+        <v>324.6214468093739</v>
       </c>
       <c r="P6" t="n">
-        <v>243.3625143610518</v>
+        <v>243.3625143610521</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.4513258794657</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.76104406532821</v>
+        <v>7.761044065328388</v>
       </c>
       <c r="L7" t="n">
-        <v>66.01877204942927</v>
+        <v>66.01877204942951</v>
       </c>
       <c r="M7" t="n">
-        <v>80.10160234307317</v>
+        <v>80.10160234307341</v>
       </c>
       <c r="N7" t="n">
-        <v>83.6864768124646</v>
+        <v>83.68647681246483</v>
       </c>
       <c r="O7" t="n">
-        <v>61.11993010782292</v>
+        <v>61.11993010782314</v>
       </c>
       <c r="P7" t="n">
-        <v>28.540394123788</v>
+        <v>28.54039412378819</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427823</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248953</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>709.4933556262782</v>
+        <v>581.7785303049254</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>424.160143083758</v>
+        <v>255.0635279116847</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>757.6705510433485</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169888</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N14" t="n">
-        <v>704.464176711769</v>
+        <v>687.4322072151692</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348818</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q14" t="n">
-        <v>544.8912574826563</v>
+        <v>472.5908494531438</v>
       </c>
       <c r="R14" t="n">
-        <v>172.9015754170064</v>
+        <v>107.1851555440242</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449191</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.1020700503685</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356848</v>
       </c>
       <c r="M15" t="n">
-        <v>182.1346174517847</v>
+        <v>554.4630955659493</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>416.781878981579</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749053</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831115</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375761</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714203</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892841</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.2625912295213</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.8840515372963</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488772</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386576</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030922</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>973.5443514455667</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>1121.41328773099</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151683</v>
@@ -35905,7 +35905,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>172.9015754170064</v>
+        <v>121.8316172527526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>459.7248180341462</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>272.0978420441392</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>301.5623085627946</v>
       </c>
       <c r="K20" t="n">
         <v>433.5251384721832</v>
@@ -36133,7 +36133,7 @@
         <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>682.1515597859915</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
         <v>507.6654448276931</v>
@@ -36203,16 +36203,16 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>334.4150015371009</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749049</v>
@@ -36221,7 +36221,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
-        <v>992.7619906674385</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>718.3985348892674</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151683</v>
@@ -36373,10 +36373,10 @@
         <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>759.51044936935</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36437,7 +36437,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
@@ -36446,19 +36446,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O24" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>18.68319416074092</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.0781105420801</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K26" t="n">
-        <v>757.6705510433479</v>
+        <v>448.171600180911</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>1121.41328773099</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151683</v>
@@ -36680,22 +36680,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>459.7248180341462</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>755.2595681769723</v>
+        <v>1121.41328773099</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151683</v>
       </c>
       <c r="O29" t="n">
-        <v>1016.452960397626</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
         <v>507.6654448276931</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>121.8316172527526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>116.2192396513087</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>433.5251384721832</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169889</v>
       </c>
       <c r="M32" t="n">
         <v>671.8997542381571</v>
@@ -37148,13 +37148,13 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
@@ -37163,13 +37163,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
-        <v>229.6407113438515</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37321,13 +37321,13 @@
         <v>635.6527791348811</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276938</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q35" t="n">
         <v>332.5762668227517</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>363.6441766038816</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37622,28 +37622,28 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>182.1346174517845</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>170.9635782460568</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38099,7 +38099,7 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,13 +38108,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>15.92455247802048</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
